--- a/Consultant_Active_Reports/Active_Candidates_Annalisa_Girgenti.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Annalisa_Girgenti.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TYLER FAUST</t>
+          <t>TREVOR KNUDSEN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TREVOR KNUDSEN</t>
+          <t>TYLER FAUST</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
     </row>
   </sheetData>
